--- a/REST/ASP.NET_Core/ASP.NET_Core_WEB_API_Notes.xlsx
+++ b/REST/ASP.NET_Core/ASP.NET_Core_WEB_API_Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\git\all-languages\REST\ASP.NET_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A31420-3321-4ABE-A4F8-3E2228035257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF77CEE-BB3F-4045-86F5-44C9F1F57FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>When using the API Controller attribute, you must use attribute routing.    Otherwise it fails as below</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>WHAT IS ROUTING?</t>
+  </si>
+  <si>
+    <t>VALIDATION ERRORS?</t>
   </si>
 </sst>
 </file>
@@ -428,6 +431,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115102</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>160066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A59DC0-F545-486D-A859-B7910C980C49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="28529280"/>
+          <a:ext cx="9259102" cy="525826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572078</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>7747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA157ECF-E17D-4BEF-B712-7E94395A78A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="29260800"/>
+          <a:ext cx="6668078" cy="1470787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -694,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,6 +840,12 @@
         <v>7</v>
       </c>
     </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
